--- a/app/shiny/templates/routes_3regions.xlsx
+++ b/app/shiny/templates/routes_3regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DC33E3C-E479-4F23-B1C2-FC6ABEBA7CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E905C9-E854-423C-8179-BB1E7746A5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69E47BAC-755F-4C59-B0FA-B6A795F816AB}"/>
   </bookViews>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5CFF22-F59D-4FE4-86BB-861E90041BD0}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,7 +1294,7 @@
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1591,7 +1591,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
